--- a/Thesis_Version/Architecture/Design_of_Experiments.xlsx
+++ b/Thesis_Version/Architecture/Design_of_Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3794bda5aa5aabe7/Master_Stuttgart/Georgia/GRA_MasterThesis/01_GRA_MasterThesis/Code/Master-Thesis---Product-Development-Simulation/Thesis_Version/Architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="604" documentId="8_{B3F3F7B0-FB86-4618-A196-404D85A99B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8D80BAB-56A6-4029-8C04-8DECE4B280DD}"/>
+  <xr:revisionPtr revIDLastSave="609" documentId="8_{B3F3F7B0-FB86-4618-A196-404D85A99B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02457B99-D6CA-4185-8C1E-326ECE82946E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4CFC0A6-6CED-42DA-BB59-74F2F93ED3C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F4CFC0A6-6CED-42DA-BB59-74F2F93ED3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="DOE1 - Accuracy" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="278">
   <si>
     <t>Digital Literacy</t>
   </si>
@@ -335,9 +335,6 @@
     <t>Upper</t>
   </si>
   <si>
-    <t>Spalte1</t>
-  </si>
-  <si>
     <t>DOE3-46</t>
   </si>
   <si>
@@ -449,18 +446,6 @@
     <t>Average Iterations</t>
   </si>
   <si>
-    <t>Spalte2</t>
-  </si>
-  <si>
-    <t>Spalte3</t>
-  </si>
-  <si>
-    <t>Spalte4</t>
-  </si>
-  <si>
-    <t>Spalte5</t>
-  </si>
-  <si>
     <t>DOE2-1</t>
   </si>
   <si>
@@ -558,6 +543,336 @@
   </si>
   <si>
     <t>DOE2-33</t>
+  </si>
+  <si>
+    <t>T_Acc (old)</t>
+  </si>
+  <si>
+    <t>T_I (old)</t>
+  </si>
+  <si>
+    <t>DL_Eng</t>
+  </si>
+  <si>
+    <t>DL_EKM</t>
+  </si>
+  <si>
+    <t>New Tool</t>
+  </si>
+  <si>
+    <t>T_Acc (new)</t>
+  </si>
+  <si>
+    <t>T_I (new)</t>
+  </si>
+  <si>
+    <t>T_Usab</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>DOE4-1</t>
+  </si>
+  <si>
+    <t>DOE4-2</t>
+  </si>
+  <si>
+    <t>DOE4-3</t>
+  </si>
+  <si>
+    <t>DOE4-4</t>
+  </si>
+  <si>
+    <t>DOE4-5</t>
+  </si>
+  <si>
+    <t>DOE4-6</t>
+  </si>
+  <si>
+    <t>DOE4-7</t>
+  </si>
+  <si>
+    <t>DOE4-8</t>
+  </si>
+  <si>
+    <t>DOE4-9</t>
+  </si>
+  <si>
+    <t>DOE4-10</t>
+  </si>
+  <si>
+    <t>DOE4-11</t>
+  </si>
+  <si>
+    <t>DOE4-12</t>
+  </si>
+  <si>
+    <t>DOE4-13</t>
+  </si>
+  <si>
+    <t>DOE4-14</t>
+  </si>
+  <si>
+    <t>DOE4-15</t>
+  </si>
+  <si>
+    <t>DOE4-16</t>
+  </si>
+  <si>
+    <t>DOE4-17</t>
+  </si>
+  <si>
+    <t>DOE4-18</t>
+  </si>
+  <si>
+    <t>DOE4-19</t>
+  </si>
+  <si>
+    <t>DOE4-20</t>
+  </si>
+  <si>
+    <t>DOE4-21</t>
+  </si>
+  <si>
+    <t>DOE4-22</t>
+  </si>
+  <si>
+    <t>DOE4-23</t>
+  </si>
+  <si>
+    <t>DOE4-24</t>
+  </si>
+  <si>
+    <t>DOE4-25</t>
+  </si>
+  <si>
+    <t>DOE4-26</t>
+  </si>
+  <si>
+    <t>DOE4-27</t>
+  </si>
+  <si>
+    <t>DOE4-28</t>
+  </si>
+  <si>
+    <t>DOE4-29</t>
+  </si>
+  <si>
+    <t>DOE4-30</t>
+  </si>
+  <si>
+    <t>DOE4-31</t>
+  </si>
+  <si>
+    <t>DOE4-32</t>
+  </si>
+  <si>
+    <t>DOE4-33</t>
+  </si>
+  <si>
+    <t>DOE4-34</t>
+  </si>
+  <si>
+    <t>DOE4-35</t>
+  </si>
+  <si>
+    <t>DOE4-36</t>
+  </si>
+  <si>
+    <t>DOE4-37</t>
+  </si>
+  <si>
+    <t>DOE4-38</t>
+  </si>
+  <si>
+    <t>DOE4-39</t>
+  </si>
+  <si>
+    <t>DOE4-40</t>
+  </si>
+  <si>
+    <t>DOE4-41</t>
+  </si>
+  <si>
+    <t>DOE4-42</t>
+  </si>
+  <si>
+    <t>DOE4-43</t>
+  </si>
+  <si>
+    <t>DOE4-44</t>
+  </si>
+  <si>
+    <t>DOE4-45</t>
+  </si>
+  <si>
+    <t>DOE4-46</t>
+  </si>
+  <si>
+    <t>DOE4-47</t>
+  </si>
+  <si>
+    <t>DOE4-48</t>
+  </si>
+  <si>
+    <t>DOE4-49</t>
+  </si>
+  <si>
+    <t>DOE4-50</t>
+  </si>
+  <si>
+    <t>DOE4-51</t>
+  </si>
+  <si>
+    <t>DOE4-52</t>
+  </si>
+  <si>
+    <t>DOE4-53</t>
+  </si>
+  <si>
+    <t>DOE4-54</t>
+  </si>
+  <si>
+    <t>DOE4-55</t>
+  </si>
+  <si>
+    <t>DOE4-56</t>
+  </si>
+  <si>
+    <t>DOE4-57</t>
+  </si>
+  <si>
+    <t>DOE4-58</t>
+  </si>
+  <si>
+    <t>DOE4-59</t>
+  </si>
+  <si>
+    <t>DOE4-60</t>
+  </si>
+  <si>
+    <t>DOE4-61</t>
+  </si>
+  <si>
+    <t>DOE4-62</t>
+  </si>
+  <si>
+    <t>DOE4-63</t>
+  </si>
+  <si>
+    <t>DOE4-64</t>
+  </si>
+  <si>
+    <t>DOE4-65</t>
+  </si>
+  <si>
+    <t>DOE4-66</t>
+  </si>
+  <si>
+    <t>DOE4-67</t>
+  </si>
+  <si>
+    <t>DOE4-68</t>
+  </si>
+  <si>
+    <t>DOE4-69</t>
+  </si>
+  <si>
+    <t>DOE4-70</t>
+  </si>
+  <si>
+    <t>DOE4-71</t>
+  </si>
+  <si>
+    <t>DOE4-72</t>
+  </si>
+  <si>
+    <t>DOE4-73</t>
+  </si>
+  <si>
+    <t>DOE4-74</t>
+  </si>
+  <si>
+    <t>DOE4-75</t>
+  </si>
+  <si>
+    <t>DOE4-76</t>
+  </si>
+  <si>
+    <t>DOE4-77</t>
+  </si>
+  <si>
+    <t>DOE4-78</t>
+  </si>
+  <si>
+    <t>DOE4-79</t>
+  </si>
+  <si>
+    <t>DOE4-80</t>
+  </si>
+  <si>
+    <t>DOE4-81</t>
+  </si>
+  <si>
+    <t>DOE4-82</t>
+  </si>
+  <si>
+    <t>DOE4-83</t>
+  </si>
+  <si>
+    <t>DOE4-84</t>
+  </si>
+  <si>
+    <t>DOE4-85</t>
+  </si>
+  <si>
+    <t>DOE4-86</t>
+  </si>
+  <si>
+    <t>DOE4-87</t>
+  </si>
+  <si>
+    <t>DOE4-88</t>
+  </si>
+  <si>
+    <t>DOE4-89</t>
+  </si>
+  <si>
+    <t>DOE4-90</t>
+  </si>
+  <si>
+    <t>DOE4-91</t>
+  </si>
+  <si>
+    <t>DOE4-92</t>
+  </si>
+  <si>
+    <t>DOE4-93</t>
+  </si>
+  <si>
+    <t>DOE4-94</t>
+  </si>
+  <si>
+    <t>DOE4-95</t>
+  </si>
+  <si>
+    <t>DOE4-96</t>
+  </si>
+  <si>
+    <t>DOE4-97</t>
+  </si>
+  <si>
+    <t>DOE4-98</t>
+  </si>
+  <si>
+    <t>DOE4-99</t>
+  </si>
+  <si>
+    <t>DOE4-100</t>
   </si>
 </sst>
 </file>
@@ -830,7 +1145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
@@ -877,7 +1192,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,18 +2661,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9789728D-7A20-4D6B-B9FB-F55F32D50C3A}" name="Tabelle2463" displayName="Tabelle2463" ref="A2:R83" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A2:R83" xr:uid="{9789728D-7A20-4D6B-B9FB-F55F32D50C3A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9789728D-7A20-4D6B-B9FB-F55F32D50C3A}" name="Tabelle2463" displayName="Tabelle2463" ref="A2:R102" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A2:R102" xr:uid="{9789728D-7A20-4D6B-B9FB-F55F32D50C3A}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{18349A6B-CFE6-4563-BBA2-625F962B88C6}" name="Config. No." dataDxfId="5" dataCellStyle="Standard 2"/>
-    <tableColumn id="3" xr3:uid="{3D95273B-AA98-4030-AAFE-4619B0242DAF}" name="Tool Usability" dataCellStyle="Standard 2"/>
-    <tableColumn id="4" xr3:uid="{334F4205-72F0-468F-9702-A4FE59FDC632}" name="Accuracy" dataDxfId="4" dataCellStyle="Standard 2"/>
-    <tableColumn id="2" xr3:uid="{9A1F949E-96B8-4EFF-84A5-7A1E986011A5}" name="Interoperability" dataDxfId="3" dataCellStyle="Standard 2"/>
-    <tableColumn id="19" xr3:uid="{F2DA15B0-D6D2-4315-89C3-483FD4E4B50D}" name="Spalte5" dataCellStyle="Standard 2"/>
-    <tableColumn id="18" xr3:uid="{D2BDE5AA-D4DD-4557-A09C-1B44C7E20578}" name="Spalte4" dataCellStyle="Standard 2"/>
-    <tableColumn id="17" xr3:uid="{AA0570CC-FEAD-4D5E-B251-DD52EDA35BA9}" name="Spalte3" dataCellStyle="Standard 2"/>
-    <tableColumn id="14" xr3:uid="{8F637EAF-5ED4-4084-8F7C-8DAAE52A55E8}" name="Spalte1" dataCellStyle="Standard 2"/>
-    <tableColumn id="15" xr3:uid="{C44B2637-276B-440C-8A53-E9521517A198}" name="Spalte2" dataDxfId="2" dataCellStyle="Standard 2"/>
+    <tableColumn id="3" xr3:uid="{3D95273B-AA98-4030-AAFE-4619B0242DAF}" name="T_Acc (old)" dataCellStyle="Standard 2"/>
+    <tableColumn id="4" xr3:uid="{334F4205-72F0-468F-9702-A4FE59FDC632}" name="T_I (old)" dataDxfId="4" dataCellStyle="Standard 2"/>
+    <tableColumn id="2" xr3:uid="{9A1F949E-96B8-4EFF-84A5-7A1E986011A5}" name="DL_Eng" dataDxfId="3" dataCellStyle="Standard 2"/>
+    <tableColumn id="19" xr3:uid="{F2DA15B0-D6D2-4315-89C3-483FD4E4B50D}" name="DL_EKM" dataCellStyle="Standard 2"/>
+    <tableColumn id="18" xr3:uid="{D2BDE5AA-D4DD-4557-A09C-1B44C7E20578}" name="New Tool" dataCellStyle="Standard 2"/>
+    <tableColumn id="17" xr3:uid="{AA0570CC-FEAD-4D5E-B251-DD52EDA35BA9}" name="T_Acc (new)" dataCellStyle="Standard 2"/>
+    <tableColumn id="14" xr3:uid="{8F637EAF-5ED4-4084-8F7C-8DAAE52A55E8}" name="T_I (new)" dataCellStyle="Standard 2"/>
+    <tableColumn id="15" xr3:uid="{C44B2637-276B-440C-8A53-E9521517A198}" name="T_Usab" dataDxfId="2" dataCellStyle="Standard 2"/>
     <tableColumn id="5" xr3:uid="{EC92608D-AD79-45AE-8480-689D2AF47F6E}" name="Mean Cost" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{97761D3F-370D-4B26-9F45-40A147AC4197}" name="Mean Lead Time"/>
     <tableColumn id="7" xr3:uid="{42C1F069-000F-4C3D-9D5E-48096C8BEFDB}" name="Risk"/>
@@ -2692,7 +3006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80CF189-7DFD-46D1-A47D-D7196602ECD3}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12:C25"/>
     </sheetView>
   </sheetViews>
@@ -2717,23 +3031,23 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
-      <c r="B1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="29" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="31"/>
       <c r="M1" t="s">
         <v>13</v>
       </c>
@@ -2764,7 +3078,7 @@
         <v>92</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>4</v>
@@ -3313,23 +3627,23 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
-      <c r="B1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="29" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="31"/>
       <c r="M1" t="s">
         <v>13</v>
       </c>
@@ -3360,7 +3674,7 @@
         <v>92</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>4</v>
@@ -3383,7 +3697,7 @@
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -3403,7 +3717,7 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -3416,7 +3730,7 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -3429,7 +3743,7 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -3442,7 +3756,7 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -3455,7 +3769,7 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
@@ -3468,7 +3782,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -3481,7 +3795,7 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -3494,7 +3808,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
@@ -3507,7 +3821,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -3520,7 +3834,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -3533,7 +3847,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -3546,7 +3860,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -3559,7 +3873,7 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -3572,7 +3886,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -3585,7 +3899,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -3598,7 +3912,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
@@ -3611,7 +3925,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
@@ -3624,7 +3938,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -3637,7 +3951,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
@@ -3650,7 +3964,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B23" s="2">
         <v>3</v>
@@ -3663,7 +3977,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -3676,7 +3990,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
@@ -3689,7 +4003,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
@@ -3702,7 +4016,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -3715,7 +4029,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
@@ -3728,7 +4042,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
@@ -3741,7 +4055,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -3754,7 +4068,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B31" s="2">
         <v>2</v>
@@ -3767,7 +4081,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B32" s="2">
         <v>3</v>
@@ -3780,7 +4094,7 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -3793,7 +4107,7 @@
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
@@ -3806,7 +4120,7 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B35" s="2">
         <v>3</v>
@@ -3945,22 +4259,22 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="23"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="29" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="32"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="31"/>
       <c r="N1" t="s">
         <v>13</v>
       </c>
@@ -3994,7 +4308,7 @@
         <v>93</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>4</v>
@@ -4738,7 +5052,7 @@
     </row>
     <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
@@ -4753,7 +5067,7 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2">
         <v>2</v>
@@ -4768,7 +5082,7 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2">
         <v>3</v>
@@ -4783,7 +5097,7 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2">
         <v>1</v>
@@ -4798,7 +5112,7 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2">
         <v>2</v>
@@ -4813,7 +5127,7 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2">
         <v>3</v>
@@ -4828,7 +5142,7 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -4843,7 +5157,7 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2">
         <v>2</v>
@@ -4858,7 +5172,7 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2">
         <v>3</v>
@@ -4873,7 +5187,7 @@
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2">
         <v>1</v>
@@ -4888,7 +5202,7 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2">
         <v>2</v>
@@ -4903,7 +5217,7 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2">
         <v>3</v>
@@ -4918,7 +5232,7 @@
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
@@ -4933,7 +5247,7 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2">
         <v>2</v>
@@ -4948,7 +5262,7 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B62" s="2">
         <v>3</v>
@@ -4963,7 +5277,7 @@
     </row>
     <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2">
         <v>1</v>
@@ -4978,7 +5292,7 @@
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2">
         <v>2</v>
@@ -4993,7 +5307,7 @@
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2">
         <v>3</v>
@@ -5008,7 +5322,7 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2">
         <v>1</v>
@@ -5023,7 +5337,7 @@
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2">
         <v>2</v>
@@ -5038,7 +5352,7 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2">
         <v>3</v>
@@ -5053,7 +5367,7 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2">
         <v>1</v>
@@ -5068,7 +5382,7 @@
     </row>
     <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2">
         <v>2</v>
@@ -5083,7 +5397,7 @@
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2">
         <v>3</v>
@@ -5098,7 +5412,7 @@
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
@@ -5113,7 +5427,7 @@
     </row>
     <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2">
         <v>2</v>
@@ -5128,7 +5442,7 @@
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2">
         <v>3</v>
@@ -5143,7 +5457,7 @@
     </row>
     <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2">
         <v>1</v>
@@ -5158,7 +5472,7 @@
     </row>
     <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2">
         <v>2</v>
@@ -5173,7 +5487,7 @@
     </row>
     <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2">
         <v>3</v>
@@ -5188,7 +5502,7 @@
     </row>
     <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
@@ -5203,7 +5517,7 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2">
         <v>2</v>
@@ -5218,7 +5532,7 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2">
         <v>3</v>
@@ -5233,7 +5547,7 @@
     </row>
     <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2">
         <v>1</v>
@@ -5248,7 +5562,7 @@
     </row>
     <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B82" s="2">
         <v>2</v>
@@ -5263,7 +5577,7 @@
     </row>
     <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2">
         <v>3</v>
@@ -5335,10 +5649,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A4B66C-3499-42CE-9C79-E35BEE5D8946}">
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5364,27 +5678,27 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="29" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="32"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="31"/>
       <c r="S1" t="s">
         <v>13</v>
       </c>
@@ -5397,28 +5711,28 @@
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>9</v>
@@ -5433,7 +5747,7 @@
         <v>93</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>4</v>
@@ -5454,1088 +5768,3058 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="26"/>
+    <row r="3" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3">
+        <v>0.2</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
       <c r="L3" s="27"/>
       <c r="S3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="T3" s="4">
         <f>COUNTA(Tabelle2463[Config. No.])*T1*T2/3600</f>
+        <v>44.444444444444443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4">
+        <v>-0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="3"/>
-      <c r="L4" s="24"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="3"/>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="3"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
       <c r="L6" s="24"/>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="3"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0.8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7">
+        <v>0.8</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
       <c r="L7" s="24"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="3"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.8</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8">
+        <v>0.2</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
       <c r="L8" s="24"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="3"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
       <c r="L9" s="24"/>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="3"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10">
+        <v>0.2</v>
+      </c>
+      <c r="H10">
+        <v>0.8</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
       <c r="L10" s="24"/>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="3"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
       <c r="L11" s="24"/>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="3"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12">
+        <v>-0.5</v>
+      </c>
+      <c r="C12">
+        <v>0.8</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12">
+        <v>0.8</v>
+      </c>
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
       <c r="L12" s="24"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="3"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.8</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
       <c r="L13" s="24"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="3"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>0.2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
       <c r="L14" s="24"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="3"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0.2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
       <c r="L15" s="24"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="3"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16">
+        <v>-0.5</v>
+      </c>
+      <c r="C16">
+        <v>0.8</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
       <c r="L16" s="24"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="3"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17">
+        <v>-0.5</v>
+      </c>
+      <c r="C17">
+        <v>0.2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17">
+        <v>0.2</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
       <c r="L17" s="24"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="3"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18">
+        <v>-0.5</v>
+      </c>
+      <c r="C18">
+        <v>0.2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18">
+        <v>0.2</v>
+      </c>
+      <c r="H18">
+        <v>0.8</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
       <c r="L18" s="24"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="3"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19">
+        <v>0.5</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
       <c r="L19" s="24"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="3"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20">
+        <v>-0.5</v>
+      </c>
+      <c r="C20">
+        <v>0.8</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20">
+        <v>0.5</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
       <c r="L20" s="24"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="3"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.8</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21">
+        <v>0.8</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
       <c r="L21" s="24"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="3"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
       <c r="L22" s="24"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="3"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23">
+        <v>0.2</v>
+      </c>
+      <c r="H23">
+        <v>0.8</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
       <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="3"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24">
+        <v>-0.5</v>
+      </c>
+      <c r="C24">
+        <v>0.8</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24">
+        <v>0.8</v>
+      </c>
+      <c r="H24">
+        <v>0.8</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
       <c r="L24" s="24"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="3"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="C25">
+        <v>0.8</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25">
+        <v>0.5</v>
+      </c>
+      <c r="H25">
+        <v>0.8</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="3"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26">
+        <v>0.2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26">
+        <v>0.8</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
       <c r="L26" s="24"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="3"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27">
+        <v>0.5</v>
+      </c>
+      <c r="C27">
+        <v>0.8</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27">
+        <v>0.2</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
       <c r="L27" s="24"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="3"/>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28">
+        <v>0.5</v>
+      </c>
+      <c r="C28">
+        <v>0.2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28">
+        <v>0.8</v>
+      </c>
+      <c r="H28">
+        <v>0.8</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
       <c r="L28" s="24"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="3"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+      <c r="C29">
+        <v>0.2</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29">
+        <v>0.2</v>
+      </c>
+      <c r="H29">
+        <v>0.8</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="3"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30">
+        <v>0.5</v>
+      </c>
+      <c r="C30">
+        <v>0.2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30">
+        <v>0.2</v>
+      </c>
+      <c r="H30">
+        <v>0.2</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="3"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31">
+        <v>0.5</v>
+      </c>
+      <c r="H31">
+        <v>0.5</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="3"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32">
+        <v>0.5</v>
+      </c>
+      <c r="C32">
+        <v>0.2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32">
+        <v>0.2</v>
+      </c>
+      <c r="H32">
+        <v>0.8</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="3"/>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33">
+        <v>0.8</v>
+      </c>
+      <c r="H33">
+        <v>0.8</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="3"/>
+      <c r="A34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34">
+        <v>-0.5</v>
+      </c>
+      <c r="C34">
+        <v>0.8</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34">
+        <v>0.8</v>
+      </c>
+      <c r="H34">
+        <v>0.8</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
       <c r="M34" s="1"/>
       <c r="S34" s="17"/>
       <c r="T34" s="20"/>
       <c r="U34" s="11"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="3"/>
+      <c r="A35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35">
+        <v>-0.5</v>
+      </c>
+      <c r="C35">
+        <v>0.8</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35">
+        <v>0.2</v>
+      </c>
+      <c r="H35">
+        <v>0.8</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
       <c r="M35" s="1"/>
       <c r="S35" s="18"/>
       <c r="T35" s="21"/>
       <c r="U35" s="12"/>
     </row>
     <row r="36" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="3"/>
+      <c r="A36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36">
+        <v>-0.5</v>
+      </c>
+      <c r="C36">
+        <v>0.2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36">
+        <v>0.8</v>
+      </c>
+      <c r="H36">
+        <v>0.8</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
       <c r="M36" s="1"/>
       <c r="S36" s="17"/>
       <c r="T36" s="22"/>
       <c r="U36" s="16"/>
     </row>
     <row r="37" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="3"/>
+      <c r="A37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37">
+        <v>-0.5</v>
+      </c>
+      <c r="C37">
+        <v>0.2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37">
+        <v>0.8</v>
+      </c>
+      <c r="H37">
+        <v>0.2</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
       <c r="M37" s="1"/>
       <c r="S37" s="18"/>
       <c r="T37" s="14"/>
       <c r="U37" s="12"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="3"/>
+      <c r="A38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38">
+        <v>0.5</v>
+      </c>
+      <c r="C38">
+        <v>0.8</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38">
+        <v>0.8</v>
+      </c>
+      <c r="H38">
+        <v>0.8</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
       <c r="M38" s="1"/>
       <c r="S38" s="17"/>
       <c r="T38" s="13"/>
       <c r="U38" s="11"/>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="3"/>
+      <c r="A39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0.2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39">
+        <v>0.8</v>
+      </c>
+      <c r="H39">
+        <v>0.2</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
       <c r="M39" s="1"/>
       <c r="S39" s="18"/>
       <c r="T39" s="14"/>
       <c r="U39" s="12"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="3"/>
+      <c r="A40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40">
+        <v>-0.5</v>
+      </c>
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40">
+        <v>0.8</v>
+      </c>
+      <c r="H40">
+        <v>0.5</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
       <c r="M40" s="1"/>
       <c r="S40" s="17"/>
       <c r="T40" s="13"/>
       <c r="U40" s="11"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="3"/>
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41">
+        <v>0.5</v>
+      </c>
+      <c r="H41">
+        <v>0.8</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
       <c r="M41" s="1"/>
       <c r="S41" s="18"/>
       <c r="T41" s="14"/>
       <c r="U41" s="12"/>
     </row>
     <row r="42" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="3"/>
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42">
+        <v>-0.5</v>
+      </c>
+      <c r="C42">
+        <v>0.8</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42">
+        <v>0.8</v>
+      </c>
+      <c r="H42">
+        <v>0.2</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
       <c r="M42" s="1"/>
       <c r="S42" s="19"/>
       <c r="T42" s="15"/>
       <c r="U42" s="16"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="3"/>
+    <row r="43" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43">
+        <v>-0.5</v>
+      </c>
+      <c r="C43">
+        <v>0.8</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>177</v>
+      </c>
+      <c r="G43">
+        <v>0.2</v>
+      </c>
+      <c r="H43">
+        <v>0.8</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="3"/>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44">
+        <v>-0.5</v>
+      </c>
+      <c r="C44">
+        <v>0.2</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44">
+        <v>0.2</v>
+      </c>
+      <c r="H44">
+        <v>0.2</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="3"/>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0.8</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>177</v>
+      </c>
+      <c r="G45">
+        <v>0.5</v>
+      </c>
+      <c r="H45">
+        <v>0.8</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="3"/>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0.5</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46">
+        <v>0.5</v>
+      </c>
+      <c r="H46">
+        <v>0.5</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="3"/>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47">
+        <v>-0.5</v>
+      </c>
+      <c r="C47">
+        <v>0.2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47">
+        <v>0.2</v>
+      </c>
+      <c r="H47">
+        <v>0.8</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="3"/>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48">
+        <v>0.5</v>
+      </c>
+      <c r="C48">
+        <v>0.5</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48">
+        <v>0.8</v>
+      </c>
+      <c r="H48">
+        <v>0.5</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="3"/>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49">
+        <v>0.5</v>
+      </c>
+      <c r="C49">
+        <v>0.8</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>177</v>
+      </c>
+      <c r="G49">
+        <v>0.2</v>
+      </c>
+      <c r="H49">
+        <v>0.8</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="3"/>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50">
+        <v>0.5</v>
+      </c>
+      <c r="C50">
+        <v>0.5</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>176</v>
+      </c>
+      <c r="G50">
+        <v>0.5</v>
+      </c>
+      <c r="H50">
+        <v>0.5</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="3"/>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0.5</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>177</v>
+      </c>
+      <c r="G51">
+        <v>0.8</v>
+      </c>
+      <c r="H51">
+        <v>0.5</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="3"/>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52">
+        <v>-0.5</v>
+      </c>
+      <c r="C52">
+        <v>0.5</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52">
+        <v>0.8</v>
+      </c>
+      <c r="H52">
+        <v>0.8</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="3"/>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53">
+        <v>-0.5</v>
+      </c>
+      <c r="C53">
+        <v>0.8</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53">
+        <v>0.5</v>
+      </c>
+      <c r="H53">
+        <v>0.5</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="3"/>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0.5</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>176</v>
+      </c>
+      <c r="G54">
+        <v>0.5</v>
+      </c>
+      <c r="H54">
+        <v>0.8</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="3"/>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0.8</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>177</v>
+      </c>
+      <c r="G55">
+        <v>0.8</v>
+      </c>
+      <c r="H55">
+        <v>0.2</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="3"/>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0.8</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>177</v>
+      </c>
+      <c r="G56">
+        <v>0.5</v>
+      </c>
+      <c r="H56">
+        <v>0.2</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="3"/>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57">
+        <v>-0.5</v>
+      </c>
+      <c r="C57">
+        <v>0.2</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>177</v>
+      </c>
+      <c r="G57">
+        <v>0.8</v>
+      </c>
+      <c r="H57">
+        <v>0.8</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="3"/>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58">
+        <v>0.5</v>
+      </c>
+      <c r="C58">
+        <v>0.2</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>177</v>
+      </c>
+      <c r="G58">
+        <v>0.8</v>
+      </c>
+      <c r="H58">
+        <v>0.5</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="3"/>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59">
+        <v>-0.5</v>
+      </c>
+      <c r="C59">
+        <v>0.5</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>176</v>
+      </c>
+      <c r="G59">
+        <v>0.2</v>
+      </c>
+      <c r="H59">
+        <v>0.2</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="3"/>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>235</v>
+      </c>
+      <c r="B60">
+        <v>0.5</v>
+      </c>
+      <c r="C60">
+        <v>0.8</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>176</v>
+      </c>
+      <c r="G60">
+        <v>0.2</v>
+      </c>
+      <c r="H60">
+        <v>0.5</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="3"/>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61">
+        <v>-0.5</v>
+      </c>
+      <c r="C61">
+        <v>0.2</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>176</v>
+      </c>
+      <c r="G61">
+        <v>0.5</v>
+      </c>
+      <c r="H61">
+        <v>0.2</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="3"/>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>237</v>
+      </c>
+      <c r="B62">
+        <v>-0.5</v>
+      </c>
+      <c r="C62">
+        <v>0.8</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>176</v>
+      </c>
+      <c r="G62">
+        <v>0.8</v>
+      </c>
+      <c r="H62">
+        <v>0.2</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="3"/>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0.8</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>176</v>
+      </c>
+      <c r="G63">
+        <v>0.2</v>
+      </c>
+      <c r="H63">
+        <v>0.2</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="3"/>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>239</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0.2</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>177</v>
+      </c>
+      <c r="G64">
+        <v>0.8</v>
+      </c>
+      <c r="H64">
+        <v>0.2</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="3"/>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>240</v>
+      </c>
+      <c r="B65">
+        <v>0.5</v>
+      </c>
+      <c r="C65">
+        <v>0.2</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>176</v>
+      </c>
+      <c r="G65">
+        <v>0.8</v>
+      </c>
+      <c r="H65">
+        <v>0.8</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="3"/>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0.5</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>177</v>
+      </c>
+      <c r="G66">
+        <v>0.2</v>
+      </c>
+      <c r="H66">
+        <v>0.5</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="3"/>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>242</v>
+      </c>
+      <c r="B67">
+        <v>0.5</v>
+      </c>
+      <c r="C67">
+        <v>0.2</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>176</v>
+      </c>
+      <c r="G67">
+        <v>0.2</v>
+      </c>
+      <c r="H67">
+        <v>0.2</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="3"/>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>243</v>
+      </c>
+      <c r="B68">
+        <v>-0.5</v>
+      </c>
+      <c r="C68">
+        <v>0.8</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68" t="s">
+        <v>176</v>
+      </c>
+      <c r="G68">
+        <v>0.5</v>
+      </c>
+      <c r="H68">
+        <v>0.5</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="3"/>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69">
+        <v>-0.5</v>
+      </c>
+      <c r="C69">
+        <v>0.2</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>177</v>
+      </c>
+      <c r="G69">
+        <v>0.5</v>
+      </c>
+      <c r="H69">
+        <v>0.8</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="3"/>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70">
+        <v>-0.5</v>
+      </c>
+      <c r="C70">
+        <v>0.2</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>176</v>
+      </c>
+      <c r="G70">
+        <v>0.8</v>
+      </c>
+      <c r="H70">
+        <v>0.5</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="3"/>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71">
+        <v>-0.5</v>
+      </c>
+      <c r="C71">
+        <v>0.2</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>177</v>
+      </c>
+      <c r="G71">
+        <v>0.8</v>
+      </c>
+      <c r="H71">
+        <v>0.8</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="3"/>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72">
+        <v>-0.5</v>
+      </c>
+      <c r="C72">
+        <v>0.8</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>177</v>
+      </c>
+      <c r="G72">
+        <v>0.2</v>
+      </c>
+      <c r="H72">
+        <v>0.8</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="3"/>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0.8</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73" t="s">
+        <v>176</v>
+      </c>
+      <c r="G73">
+        <v>0.2</v>
+      </c>
+      <c r="H73">
+        <v>0.2</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="3"/>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>249</v>
+      </c>
+      <c r="B74">
+        <v>0.5</v>
+      </c>
+      <c r="C74">
+        <v>0.2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>177</v>
+      </c>
+      <c r="G74">
+        <v>0.8</v>
+      </c>
+      <c r="H74">
+        <v>0.5</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="3"/>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>250</v>
+      </c>
+      <c r="B75">
+        <v>0.5</v>
+      </c>
+      <c r="C75">
+        <v>0.8</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>176</v>
+      </c>
+      <c r="G75">
+        <v>0.2</v>
+      </c>
+      <c r="H75">
+        <v>0.8</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="3"/>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>251</v>
+      </c>
+      <c r="B76">
+        <v>-0.5</v>
+      </c>
+      <c r="C76">
+        <v>0.5</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>177</v>
+      </c>
+      <c r="G76">
+        <v>0.5</v>
+      </c>
+      <c r="H76">
+        <v>0.5</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="3"/>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>252</v>
+      </c>
+      <c r="B77">
+        <v>-0.5</v>
+      </c>
+      <c r="C77">
+        <v>0.5</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>177</v>
+      </c>
+      <c r="G77">
+        <v>0.5</v>
+      </c>
+      <c r="H77">
+        <v>0.2</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="3"/>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>253</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0.5</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>177</v>
+      </c>
+      <c r="G78">
+        <v>0.5</v>
+      </c>
+      <c r="H78">
+        <v>0.5</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="3"/>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>254</v>
+      </c>
+      <c r="B79">
+        <v>-0.5</v>
+      </c>
+      <c r="C79">
+        <v>0.5</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79" t="s">
+        <v>176</v>
+      </c>
+      <c r="G79">
+        <v>0.8</v>
+      </c>
+      <c r="H79">
+        <v>0.2</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="3"/>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>255</v>
+      </c>
+      <c r="B80">
+        <v>0.5</v>
+      </c>
+      <c r="C80">
+        <v>0.8</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>177</v>
+      </c>
+      <c r="G80">
+        <v>0.2</v>
+      </c>
+      <c r="H80">
+        <v>0.8</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="3"/>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>256</v>
+      </c>
+      <c r="B81">
+        <v>0.5</v>
+      </c>
+      <c r="C81">
+        <v>0.8</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81" t="s">
+        <v>177</v>
+      </c>
+      <c r="G81">
+        <v>0.8</v>
+      </c>
+      <c r="H81">
+        <v>0.8</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="3"/>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>257</v>
+      </c>
+      <c r="B82">
+        <v>0.5</v>
+      </c>
+      <c r="C82">
+        <v>0.8</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>176</v>
+      </c>
+      <c r="G82">
+        <v>0.5</v>
+      </c>
+      <c r="H82">
+        <v>0.8</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="3"/>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>258</v>
+      </c>
+      <c r="B83">
+        <v>-0.5</v>
+      </c>
+      <c r="C83">
+        <v>0.2</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>177</v>
+      </c>
+      <c r="G83">
+        <v>0.2</v>
+      </c>
+      <c r="H83">
+        <v>0.2</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-    </row>
-    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-    </row>
-    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-    </row>
-    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-    </row>
-    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>259</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0.8</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>176</v>
+      </c>
+      <c r="G84">
+        <v>0.8</v>
+      </c>
+      <c r="H84">
+        <v>0.8</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>260</v>
+      </c>
+      <c r="B85">
+        <v>0.5</v>
+      </c>
+      <c r="C85">
+        <v>0.2</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>177</v>
+      </c>
+      <c r="G85">
+        <v>0.8</v>
+      </c>
+      <c r="H85">
+        <v>0.2</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" s="1"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>261</v>
+      </c>
+      <c r="B86">
+        <v>-0.5</v>
+      </c>
+      <c r="C86">
+        <v>0.2</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>176</v>
+      </c>
+      <c r="G86">
+        <v>0.8</v>
+      </c>
+      <c r="H86">
+        <v>0.2</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>262</v>
+      </c>
+      <c r="B87">
+        <v>0.5</v>
+      </c>
+      <c r="C87">
+        <v>0.8</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87" t="s">
+        <v>176</v>
+      </c>
+      <c r="G87">
+        <v>0.8</v>
+      </c>
+      <c r="H87">
+        <v>0.5</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B88">
+        <v>0.5</v>
+      </c>
+      <c r="C88">
+        <v>0.2</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88" t="s">
+        <v>177</v>
+      </c>
+      <c r="G88">
+        <v>0.5</v>
+      </c>
+      <c r="H88">
+        <v>0.2</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0.2</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>176</v>
+      </c>
+      <c r="G89">
+        <v>0.5</v>
+      </c>
+      <c r="H89">
+        <v>0.5</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>265</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0.5</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90" t="s">
+        <v>177</v>
+      </c>
+      <c r="G90">
+        <v>0.2</v>
+      </c>
+      <c r="H90">
+        <v>0.8</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>266</v>
+      </c>
+      <c r="B91">
+        <v>0.5</v>
+      </c>
+      <c r="C91">
+        <v>0.8</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91" t="s">
+        <v>177</v>
+      </c>
+      <c r="G91">
+        <v>0.8</v>
+      </c>
+      <c r="H91">
+        <v>0.2</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92">
+        <v>-0.5</v>
+      </c>
+      <c r="C92">
+        <v>0.2</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92" t="s">
+        <v>177</v>
+      </c>
+      <c r="G92">
+        <v>0.2</v>
+      </c>
+      <c r="H92">
+        <v>0.2</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92" s="1"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>268</v>
+      </c>
+      <c r="B93">
+        <v>0.5</v>
+      </c>
+      <c r="C93">
+        <v>0.2</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>176</v>
+      </c>
+      <c r="G93">
+        <v>0.2</v>
+      </c>
+      <c r="H93">
+        <v>0.2</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93" s="1"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>269</v>
+      </c>
+      <c r="B94">
+        <v>-0.5</v>
+      </c>
+      <c r="C94">
+        <v>0.8</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94" t="s">
+        <v>177</v>
+      </c>
+      <c r="G94">
+        <v>0.2</v>
+      </c>
+      <c r="H94">
+        <v>0.5</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94" s="1"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>270</v>
+      </c>
+      <c r="B95">
+        <v>-0.5</v>
+      </c>
+      <c r="C95">
+        <v>0.2</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95" t="s">
+        <v>177</v>
+      </c>
+      <c r="G95">
+        <v>0.2</v>
+      </c>
+      <c r="H95">
+        <v>0.8</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>271</v>
+      </c>
+      <c r="B96">
+        <v>0.5</v>
+      </c>
+      <c r="C96">
+        <v>0.5</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>176</v>
+      </c>
+      <c r="G96">
+        <v>0.8</v>
+      </c>
+      <c r="H96">
+        <v>0.5</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96" s="1"/>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>272</v>
+      </c>
+      <c r="B97">
+        <v>-0.5</v>
+      </c>
+      <c r="C97">
+        <v>0.8</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97" t="s">
+        <v>177</v>
+      </c>
+      <c r="G97">
+        <v>0.2</v>
+      </c>
+      <c r="H97">
+        <v>0.2</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>273</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0.2</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>177</v>
+      </c>
+      <c r="G98">
+        <v>0.2</v>
+      </c>
+      <c r="H98">
+        <v>0.5</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98" s="1"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>274</v>
+      </c>
+      <c r="B99">
+        <v>0.5</v>
+      </c>
+      <c r="C99">
+        <v>0.8</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>176</v>
+      </c>
+      <c r="G99">
+        <v>0.8</v>
+      </c>
+      <c r="H99">
+        <v>0.2</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>275</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0.5</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s">
+        <v>176</v>
+      </c>
+      <c r="G100">
+        <v>0.5</v>
+      </c>
+      <c r="H100">
+        <v>0.5</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>276</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0.5</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>177</v>
+      </c>
+      <c r="G101">
+        <v>0.5</v>
+      </c>
+      <c r="H101">
+        <v>0.5</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>277</v>
+      </c>
+      <c r="B102">
+        <v>0.5</v>
+      </c>
+      <c r="C102">
+        <v>0.8</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>177</v>
+      </c>
+      <c r="G102">
+        <v>0.2</v>
+      </c>
+      <c r="H102">
+        <v>0.2</v>
+      </c>
+      <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102" s="1"/>
+      <c r="M102" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
